--- a/medicine/Psychotrope/Musée_des_traditions_vigneronnes/Musée_des_traditions_vigneronnes.xlsx
+++ b/medicine/Psychotrope/Musée_des_traditions_vigneronnes/Musée_des_traditions_vigneronnes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_des_traditions_vigneronnes</t>
+          <t>Musée_des_traditions_vigneronnes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le musée des traditions vigneronnes est un musée privé situé à Vongnes, au caveau bugiste dans le département de l'Ain, en Auvergne-Rhône-Alpes[1],[2]. Il inclut également une collection des outils des métiers de la pierre.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée des traditions vigneronnes est un musée privé situé à Vongnes, au caveau bugiste dans le département de l'Ain, en Auvergne-Rhône-Alpes,. Il inclut également une collection des outils des métiers de la pierre.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_des_traditions_vigneronnes</t>
+          <t>Musée_des_traditions_vigneronnes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une des plus grandes collections d'outils anciens et d'objets viti-vinicoles (environ 1500 objets[3]) est regroupée dans ce musée[4], qui aborde les thèmes de la culture de la vigne, la vinification, la tonnellerie, la distillation, et la dégustation[5].
-On peut y voir notamment des outils spécialisés tels que fossous, départoirs, échaudeuses, rassiots, verdondaines, jabloirs ou doloires. Beaucoup d'entre eux datent du XVIIIe siècle et certains sont des pièces uniques [6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une des plus grandes collections d'outils anciens et d'objets viti-vinicoles (environ 1500 objets) est regroupée dans ce musée, qui aborde les thèmes de la culture de la vigne, la vinification, la tonnellerie, la distillation, et la dégustation.
+On peut y voir notamment des outils spécialisés tels que fossous, départoirs, échaudeuses, rassiots, verdondaines, jabloirs ou doloires. Beaucoup d'entre eux datent du XVIIIe siècle et certains sont des pièces uniques .
 </t>
         </is>
       </c>
